--- a/比赛记录/2024 APMCM/数据/灰色关联度2.xlsx
+++ b/比赛记录/2024 APMCM/数据/灰色关联度2.xlsx
@@ -27,21 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Cat（万只）</t>
+    <t>Cat</t>
   </si>
   <si>
-    <t>Dog（万只）</t>
+    <t>Dog</t>
   </si>
   <si>
-    <t>宠物行业市场规模</t>
-  </si>
-  <si>
-    <t>宠物食物市场规模</t>
+    <t>Pet Industry Market Size</t>
   </si>
   <si>
     <t>GDP（国内生产总值/亿元）</t>
@@ -999,18 +996,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,11 +1042,8 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1061,32 +1056,29 @@
       <c r="D2">
         <v>2191</v>
       </c>
-      <c r="E2">
-        <v>116.4</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
         <v>986515.2</v>
       </c>
+      <c r="F2">
+        <v>30733</v>
+      </c>
       <c r="G2">
-        <v>30733</v>
+        <v>141008</v>
       </c>
       <c r="H2">
-        <v>141008</v>
+        <v>17767</v>
       </c>
       <c r="I2">
-        <v>17767</v>
+        <v>927.33</v>
       </c>
       <c r="J2">
-        <v>927.33</v>
+        <v>10.41</v>
       </c>
       <c r="K2">
-        <v>10.41</v>
-      </c>
-      <c r="L2">
         <v>62.71</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1099,32 +1091,29 @@
       <c r="D3">
         <v>2259</v>
       </c>
-      <c r="E3">
-        <v>138.2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>1013567</v>
       </c>
+      <c r="F3">
+        <v>32189</v>
+      </c>
       <c r="G3">
-        <v>32189</v>
+        <v>141212</v>
       </c>
       <c r="H3">
-        <v>141212</v>
+        <v>19064</v>
       </c>
       <c r="I3">
-        <v>19064</v>
+        <v>814.33</v>
       </c>
       <c r="J3">
-        <v>814.33</v>
+        <v>8.52</v>
       </c>
       <c r="K3">
-        <v>8.52</v>
-      </c>
-      <c r="L3">
         <v>63.89</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1137,32 +1126,29 @@
       <c r="D4">
         <v>2733</v>
       </c>
-      <c r="E4">
-        <v>155.4</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>1149237</v>
       </c>
+      <c r="F4">
+        <v>35128</v>
+      </c>
       <c r="G4">
-        <v>35128</v>
+        <v>141260</v>
       </c>
       <c r="H4">
-        <v>141260</v>
+        <v>20056</v>
       </c>
       <c r="I4">
-        <v>20056</v>
+        <v>764.3</v>
       </c>
       <c r="J4">
-        <v>764.3</v>
+        <v>7.52</v>
       </c>
       <c r="K4">
-        <v>7.52</v>
-      </c>
-      <c r="L4">
         <v>64.72</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1175,32 +1161,29 @@
       <c r="D5">
         <v>3069</v>
       </c>
-      <c r="E5">
-        <v>173.2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>1204724</v>
       </c>
+      <c r="F5">
+        <v>36883</v>
+      </c>
       <c r="G5">
-        <v>36883</v>
+        <v>141175</v>
       </c>
       <c r="H5">
-        <v>141175</v>
+        <v>20978</v>
       </c>
       <c r="I5">
-        <v>20978</v>
+        <v>683.5</v>
       </c>
       <c r="J5">
-        <v>683.5</v>
+        <v>6.77</v>
       </c>
       <c r="K5">
-        <v>6.77</v>
-      </c>
-      <c r="L5">
         <v>65.22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -1213,28 +1196,25 @@
       <c r="D6">
         <v>3264</v>
       </c>
-      <c r="E6">
-        <v>190</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
         <v>1260582.1</v>
       </c>
+      <c r="F6">
+        <v>39218</v>
+      </c>
       <c r="G6">
-        <v>39218</v>
+        <v>140967</v>
       </c>
       <c r="H6">
-        <v>140967</v>
+        <v>21676</v>
       </c>
       <c r="I6">
-        <v>21676</v>
+        <v>768.21</v>
       </c>
       <c r="J6">
-        <v>768.21</v>
+        <v>6.39</v>
       </c>
       <c r="K6">
-        <v>6.39</v>
-      </c>
-      <c r="L6">
         <v>66.16</v>
       </c>
     </row>
